--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itga11</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itga11</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H2">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I2">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J2">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N2">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O2">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P2">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q2">
-        <v>1.362066261071111</v>
+        <v>0.01464711816166667</v>
       </c>
       <c r="R2">
-        <v>12.25859634964</v>
+        <v>0.131824063455</v>
       </c>
       <c r="S2">
-        <v>0.002824683363522339</v>
+        <v>2.97701448457708E-05</v>
       </c>
       <c r="T2">
-        <v>0.00282468336352234</v>
+        <v>2.977014484577079E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H3">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I3">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J3">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N3">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O3">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P3">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q3">
-        <v>464.9427919141179</v>
+        <v>1.878810894145666</v>
       </c>
       <c r="R3">
-        <v>4184.485127227061</v>
+        <v>16.909298047311</v>
       </c>
       <c r="S3">
-        <v>0.9642087223250524</v>
+        <v>0.003818667388299692</v>
       </c>
       <c r="T3">
-        <v>0.9642087223250525</v>
+        <v>0.003818667388299691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H4">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I4">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J4">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N4">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O4">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P4">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q4">
-        <v>7.119778275642222</v>
+        <v>0.043976763419</v>
       </c>
       <c r="R4">
-        <v>64.07800448078</v>
+        <v>0.395790870771</v>
       </c>
       <c r="S4">
-        <v>0.01476515484008776</v>
+        <v>8.938240289875928E-05</v>
       </c>
       <c r="T4">
-        <v>0.01476515484008776</v>
+        <v>8.938240289875928E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H5">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I5">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J5">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N5">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O5">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P5">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q5">
-        <v>0.3608518204777779</v>
+        <v>0.002556000458</v>
       </c>
       <c r="R5">
-        <v>3.2476663843</v>
+        <v>0.023004004122</v>
       </c>
       <c r="S5">
-        <v>0.0007483425462714059</v>
+        <v>5.195049498519105E-06</v>
       </c>
       <c r="T5">
-        <v>0.000748342546271406</v>
+        <v>5.195049498519104E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H6">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I6">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J6">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N6">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O6">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P6">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q6">
-        <v>0.01781364904733333</v>
+        <v>3.624671345477778</v>
       </c>
       <c r="R6">
-        <v>0.160322841426</v>
+        <v>32.6220421093</v>
       </c>
       <c r="S6">
-        <v>3.694234234100966E-05</v>
+        <v>0.007367114116386008</v>
       </c>
       <c r="T6">
-        <v>3.694234234100967E-05</v>
+        <v>0.007367114116386007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H7">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I7">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J7">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N7">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O7">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P7">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q7">
-        <v>6.080708375914334</v>
+        <v>464.9427919141178</v>
       </c>
       <c r="R7">
-        <v>54.726375383229</v>
+        <v>4184.485127227061</v>
       </c>
       <c r="S7">
-        <v>0.01261030852813953</v>
+        <v>0.9449923259651898</v>
       </c>
       <c r="T7">
-        <v>0.01261030852813953</v>
+        <v>0.9449923259651898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H8">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I8">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J8">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N8">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O8">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P8">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q8">
-        <v>0.09311531686966665</v>
+        <v>10.88277656207333</v>
       </c>
       <c r="R8">
-        <v>0.8380378518269997</v>
+        <v>97.94498905866001</v>
       </c>
       <c r="S8">
-        <v>0.0001931046190396214</v>
+        <v>0.02211915210904651</v>
       </c>
       <c r="T8">
-        <v>0.0001931046190396214</v>
+        <v>0.02211915210904651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.75172666666667</v>
+      </c>
+      <c r="H9">
+        <v>44.25518</v>
+      </c>
+      <c r="I9">
+        <v>0.9757641930062764</v>
+      </c>
+      <c r="J9">
+        <v>0.9757641930062765</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.192929</v>
-      </c>
-      <c r="H9">
-        <v>0.5787869999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.01285014261358855</v>
-      </c>
-      <c r="J9">
-        <v>0.01285014261358855</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N9">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O9">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P9">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q9">
-        <v>0.004719364888333333</v>
+        <v>0.6325245360133334</v>
       </c>
       <c r="R9">
-        <v>0.042474283995</v>
+        <v>5.69272082412</v>
       </c>
       <c r="S9">
-        <v>9.787124068386754E-06</v>
+        <v>0.001285600815654117</v>
       </c>
       <c r="T9">
-        <v>9.787124068386756E-06</v>
+        <v>0.001285600815654117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H10">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I10">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J10">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N10">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O10">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P10">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q10">
-        <v>0.006380895150444444</v>
+        <v>0.07538163650499999</v>
       </c>
       <c r="R10">
-        <v>0.05742805635400001</v>
+        <v>0.678434728545</v>
       </c>
       <c r="S10">
-        <v>1.323284255030805E-05</v>
+        <v>0.0001532125441124822</v>
       </c>
       <c r="T10">
-        <v>1.323284255030805E-05</v>
+        <v>0.0001532125441124822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H11">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I11">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J11">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N11">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O11">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P11">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q11">
-        <v>2.178125463460111</v>
+        <v>9.669331422120999</v>
       </c>
       <c r="R11">
-        <v>19.603129171141</v>
+        <v>87.023982799089</v>
       </c>
       <c r="S11">
-        <v>0.00451704512191786</v>
+        <v>0.01965283503697429</v>
       </c>
       <c r="T11">
-        <v>0.00451704512191786</v>
+        <v>0.01965283503697429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H12">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I12">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J12">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N12">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O12">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P12">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q12">
-        <v>0.03335414727588888</v>
+        <v>0.226327142181</v>
       </c>
       <c r="R12">
-        <v>0.300187325483</v>
+        <v>2.036944279629</v>
       </c>
       <c r="S12">
-        <v>6.917057386076643E-05</v>
+        <v>0.0004600080187030491</v>
       </c>
       <c r="T12">
-        <v>6.917057386076645E-05</v>
+        <v>0.0004600080187030492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1210,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H13">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I13">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J13">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N13">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O13">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P13">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q13">
-        <v>0.001690488706111111</v>
+        <v>0.013154498742</v>
       </c>
       <c r="R13">
-        <v>0.015214398355</v>
+        <v>0.118390488678</v>
       </c>
       <c r="S13">
-        <v>3.505773148377809E-06</v>
+        <v>2.673640839108852E-05</v>
       </c>
       <c r="T13">
-        <v>3.50577314837781E-06</v>
+        <v>2.673640839108852E-05</v>
       </c>
     </row>
   </sheetData>
